--- a/biology/Biochimie/Fluorochrome/Fluorochrome.xlsx
+++ b/biology/Biochimie/Fluorochrome/Fluorochrome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un fluorochrome ou fluorophore  est une substance chimique capable d'émettre de la lumière de fluorescence après excitation. Ce sont des substances composées de plusieurs noyaux aromatiques conjugués ou encore des molécules planes et cycliques qui possèdent une ou plusieurs liaisons π.
 </t>
@@ -511,7 +523,9 @@
           <t>Applications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'utilisation de fluorochromes en biologie moléculaire est un peu plus récente que celle d'isotopes radioactifs. Elle a l'avantage de donner des résultats très rapidement, voire immédiatement, en s'affranchissant des longs temps d'exposition requis pour la technique par radioactivité. La fluorescence a le désavantage de ne pas être permanente, l'intensité de la fluorescence diminuant avec le temps jusqu'à devenir indétectable.
 On utilise divers fluorochromes en fonction des applications. Leur emploi à la technique du séquençage a permis d'automatiser et de mettre au point les séquenceurs de gènes modernes, ayant servi aux projets de séquençage de génomes entiers. On doit utiliser quatre fluorochromes différents pour discriminer les quatre bases de l'acide désoxyribonucléique.
@@ -521,41 +535,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Fluorochrome</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Biochimie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fluorochrome</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Liste de fluorophores</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fluorophores conjugués
-Alexa Fluor dyes (lié à un anticorps)[1]
-Cy Dyes[2]
-Marqueurs des acides nucléiques
-Marqueurs de fonctions cellulaires
-Protéines fluorescentes</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
